--- a/Experiments/Measurements/Two Banners Side by Side/Straight Path/Antenna_2/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/Straight Path/Antenna_2/Transformed_Coordinates.xlsx
@@ -1342,7 +1342,7 @@
         <v>140.867847737918</v>
       </c>
       <c r="H30" t="n">
-        <v>81.81559347744295</v>
+        <v>81.81559347744296</v>
       </c>
     </row>
     <row r="31">
@@ -1522,7 +1522,7 @@
         <v>104.8809767144251</v>
       </c>
       <c r="H36" t="n">
-        <v>82.11645257769203</v>
+        <v>82.11645257769204</v>
       </c>
     </row>
     <row r="37">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>196.6647871319672</v>
+        <v>196.664787131967</v>
       </c>
       <c r="H53" t="n">
-        <v>108.558500831701</v>
+        <v>108.5585008317009</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>199.709398961713</v>
+        <v>199.7093989617134</v>
       </c>
       <c r="H54" t="n">
-        <v>109.0580891272346</v>
+        <v>109.0580891272348</v>
       </c>
     </row>
     <row r="55">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>176.7382115888676</v>
+        <v>176.7382115888678</v>
       </c>
       <c r="H55" t="n">
-        <v>109.6179786092072</v>
+        <v>109.6179786092073</v>
       </c>
     </row>
     <row r="56">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>236.9669588772082</v>
+        <v>236.966958877208</v>
       </c>
       <c r="H59" t="n">
-        <v>81.97104852236083</v>
+        <v>81.97104852236072</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>132.4104806208661</v>
+        <v>132.4104806208665</v>
       </c>
       <c r="H60" t="n">
-        <v>82.33685995463598</v>
+        <v>82.33685995463621</v>
       </c>
     </row>
     <row r="61">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>251.1342293837203</v>
+        <v>251.1342293837205</v>
       </c>
       <c r="H61" t="n">
-        <v>82.60288822943279</v>
+        <v>82.60288822943291</v>
       </c>
     </row>
     <row r="62">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>126.8785094012051</v>
+        <v>126.8785094012053</v>
       </c>
       <c r="H62" t="n">
-        <v>78.78639576560848</v>
+        <v>78.78639576560859</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>115.4778337002211</v>
+        <v>115.4778337002209</v>
       </c>
       <c r="H65" t="n">
-        <v>81.44411116133054</v>
+        <v>81.44411116133044</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>186.6179042092782</v>
+        <v>186.6179042092785</v>
       </c>
       <c r="H66" t="n">
-        <v>81.9194058551889</v>
+        <v>81.91940585518913</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>146.7459569313199</v>
+        <v>146.7459569313201</v>
       </c>
       <c r="H67" t="n">
-        <v>82.38760302721683</v>
+        <v>82.38760302721695</v>
       </c>
     </row>
     <row r="68">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>131.5977261093146</v>
+        <v>131.5977261093148</v>
       </c>
       <c r="H68" t="n">
-        <v>93.09855426954736</v>
+        <v>93.09855426954748</v>
       </c>
     </row>
     <row r="69">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>98.64616394315743</v>
+        <v>98.64616394315723</v>
       </c>
       <c r="H71" t="n">
-        <v>107.512101398693</v>
+        <v>107.5121013986929</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>170.5323783526189</v>
+        <v>170.5323783526193</v>
       </c>
       <c r="H72" t="n">
-        <v>107.9698007978756</v>
+        <v>107.9698007978758</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>64.79425352666001</v>
+        <v>64.79425352666021</v>
       </c>
       <c r="H73" t="n">
-        <v>108.2949012744455</v>
+        <v>108.2949012744456</v>
       </c>
     </row>
     <row r="74">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>76.57194792013024</v>
+        <v>76.57194792013006</v>
       </c>
       <c r="H75" t="n">
-        <v>115.2997811904426</v>
+        <v>115.2997811904425</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>106.7845565522252</v>
+        <v>106.7845565522255</v>
       </c>
       <c r="H76" t="n">
-        <v>118.327886040833</v>
+        <v>118.3278860408332</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>87.15035022345529</v>
+        <v>87.15035022345509</v>
       </c>
       <c r="H78" t="n">
-        <v>98.77637471938309</v>
+        <v>98.77637471938299</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>164.5825734141625</v>
+        <v>164.5825734141622</v>
       </c>
       <c r="H79" t="n">
-        <v>99.22970686273416</v>
+        <v>99.22970686273402</v>
       </c>
     </row>
     <row r="80">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>237.7136030998151</v>
+        <v>237.7136030998153</v>
       </c>
       <c r="H81" t="n">
-        <v>85.86890970912384</v>
+        <v>85.86890970912394</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>53.7867605002637</v>
+        <v>53.7867605002635</v>
       </c>
       <c r="H82" t="n">
-        <v>79.35660704270759</v>
+        <v>79.35660704270749</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>141.9144304873703</v>
+        <v>141.9144304873701</v>
       </c>
       <c r="H83" t="n">
-        <v>88.41648961243121</v>
+        <v>88.41648961243109</v>
       </c>
     </row>
     <row r="84">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>174.3536914395329</v>
+        <v>174.3536914395331</v>
       </c>
       <c r="H84" t="n">
-        <v>85.50265744169297</v>
+        <v>85.50265744169307</v>
       </c>
     </row>
     <row r="85">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>124.6910742432371</v>
+        <v>124.6910742432375</v>
       </c>
       <c r="H85" t="n">
-        <v>98.50966649488764</v>
+        <v>98.50966649488782</v>
       </c>
     </row>
     <row r="86">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>162.0522650141262</v>
+        <v>162.052265014126</v>
       </c>
       <c r="H87" t="n">
-        <v>79.47540657330207</v>
+        <v>79.47540657330194</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>169.5113373994427</v>
+        <v>169.5113373994425</v>
       </c>
       <c r="H88" t="n">
-        <v>77.71245490103425</v>
+        <v>77.71245490103412</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>229.781635947547</v>
+        <v>229.7816359475472</v>
       </c>
       <c r="H89" t="n">
-        <v>78.22228008507165</v>
+        <v>78.22228008507176</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>135.0766934061574</v>
+        <v>135.0766934061572</v>
       </c>
       <c r="H90" t="n">
-        <v>79.59748545073946</v>
+        <v>79.59748545073934</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>164.9154313490806</v>
+        <v>164.915431349081</v>
       </c>
       <c r="H91" t="n">
-        <v>79.08183985751162</v>
+        <v>79.08183985751187</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>226.3254242846176</v>
+        <v>226.325424284618</v>
       </c>
       <c r="H92" t="n">
-        <v>79.57512423683487</v>
+        <v>79.57512423683511</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>117.6948741967627</v>
+        <v>117.6948741967629</v>
       </c>
       <c r="H93" t="n">
-        <v>78.0981359242746</v>
+        <v>78.09813592427473</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>124.4350763356248</v>
+        <v>124.4350763356245</v>
       </c>
       <c r="H94" t="n">
-        <v>95.42850634025837</v>
+        <v>95.42850634025822</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>111.7277600861686</v>
+        <v>111.727760086169</v>
       </c>
       <c r="H95" t="n">
-        <v>97.58581579734873</v>
+        <v>97.58581579734893</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>153.6298051503355</v>
+        <v>153.6298051503353</v>
       </c>
       <c r="H97" t="n">
-        <v>83.92242231778938</v>
+        <v>83.92242231778926</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>110.435126640742</v>
+        <v>110.4351266407418</v>
       </c>
       <c r="H98" t="n">
-        <v>85.04215255563959</v>
+        <v>85.04215255563946</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>-1.489591339885341</v>
+        <v>-1.489591339884953</v>
       </c>
       <c r="H99" t="n">
-        <v>87.05893371406962</v>
+        <v>87.05893371406984</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>105.6701801081229</v>
+        <v>105.6701801081231</v>
       </c>
       <c r="H101" t="n">
-        <v>91.93530084511831</v>
+        <v>91.93530084511841</v>
       </c>
     </row>
   </sheetData>
